--- a/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7309</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4231</v>
+        <v>3680</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11132</v>
+        <v>11120</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3223690712291894</v>
+        <v>0.3223690712291895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1865897324636567</v>
+        <v>0.1623017739778277</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4909694330474178</v>
+        <v>0.4904086591400407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -762,19 +762,19 @@
         <v>14436</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10190</v>
+        <v>9913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20056</v>
+        <v>20043</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2151260648637817</v>
+        <v>0.2151260648637816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1518569282355065</v>
+        <v>0.1477278493594864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2988782304070907</v>
+        <v>0.2986921233374685</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -783,19 +783,19 @@
         <v>21745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15977</v>
+        <v>16181</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27915</v>
+        <v>28617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2422112550219626</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1779684093899487</v>
+        <v>0.1802402695490342</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3109404530627713</v>
+        <v>0.318758260411479</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>454</v>
+        <v>623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5051</v>
+        <v>5135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09305649886997339</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0200010675957694</v>
+        <v>0.02747830143828647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.222755099043152</v>
+        <v>0.2264880326383998</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -833,19 +833,19 @@
         <v>8571</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5292</v>
+        <v>5054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13652</v>
+        <v>13191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1277298229605614</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07886088662780162</v>
+        <v>0.07531837455981542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2034539163989257</v>
+        <v>0.1965746410155476</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>10681</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6747</v>
+        <v>6715</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16193</v>
+        <v>15872</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1189727617009217</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07515442281743079</v>
+        <v>0.0747923098774424</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1803663624576073</v>
+        <v>0.176790704294576</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>13255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9841</v>
+        <v>9589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16517</v>
+        <v>16921</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5845744299008371</v>
+        <v>0.5845744299008372</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4340387739472017</v>
+        <v>0.4229098827939852</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7284355222692926</v>
+        <v>0.7462795250731643</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -904,19 +904,19 @@
         <v>44096</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38180</v>
+        <v>38058</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49179</v>
+        <v>49390</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6571441121756569</v>
+        <v>0.6571441121756567</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5689791164184406</v>
+        <v>0.5671529118548023</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7328881511795509</v>
+        <v>0.7360363690523469</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>106</v>
@@ -925,19 +925,19 @@
         <v>57351</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50347</v>
+        <v>50747</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63710</v>
+        <v>64133</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6388159832771158</v>
+        <v>0.6388159832771159</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5608059107177867</v>
+        <v>0.5652530840546743</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7096526011809068</v>
+        <v>0.7143544705527957</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>5128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2443</v>
+        <v>2307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8126</v>
+        <v>8033</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.420534799413891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2002919582478123</v>
+        <v>0.1891495857274921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6663773633395492</v>
+        <v>0.6586896833799033</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1050,19 +1050,19 @@
         <v>4972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2608</v>
+        <v>2810</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7460</v>
+        <v>8020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3577378360685773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1876683378375884</v>
+        <v>0.2022044648462611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5367500855826041</v>
+        <v>0.5770650270343397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1071,19 +1071,19 @@
         <v>10100</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6833</v>
+        <v>6366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13968</v>
+        <v>14046</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3870876072316977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2618769269964762</v>
+        <v>0.2439900961708246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5353135792610384</v>
+        <v>0.5383158933275305</v>
       </c>
     </row>
     <row r="9">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3162</v>
+        <v>3211</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07621790457167997</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2275305299917529</v>
+        <v>0.2310464721827381</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3077</v>
+        <v>3984</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04059551236442543</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1179242125005523</v>
+        <v>0.1526656474856252</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>7067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4069</v>
+        <v>4162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9752</v>
+        <v>9888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5794652005861091</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3336226366604515</v>
+        <v>0.3413103166200968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7997080417521878</v>
+        <v>0.8108504142725079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1184,19 +1184,19 @@
         <v>7867</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5149</v>
+        <v>4722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10381</v>
+        <v>10199</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5660442593597427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3704553505245926</v>
+        <v>0.3397714530294185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7469477406086186</v>
+        <v>0.7338749446786885</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1205,19 +1205,19 @@
         <v>14933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11302</v>
+        <v>11119</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18530</v>
+        <v>18718</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5723168804038768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.433147259498574</v>
+        <v>0.4261142859096961</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7101702342553073</v>
+        <v>0.7173630769373291</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2763</v>
+        <v>2768</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3934986343703946</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8540379844843778</v>
+        <v>0.8557759303848195</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1330,19 +1330,19 @@
         <v>4026</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2100</v>
+        <v>1946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6130</v>
+        <v>5866</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5488936750007872</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2862616556608052</v>
+        <v>0.2653683768337274</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8357337783240196</v>
+        <v>0.7997718845054343</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1351,19 +1351,19 @@
         <v>5299</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2890</v>
+        <v>2755</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7625</v>
+        <v>7788</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5013370689552898</v>
+        <v>0.5013370689552897</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2734518489543963</v>
+        <v>0.2606893315093613</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7214127993879221</v>
+        <v>0.7368018738344743</v>
       </c>
     </row>
     <row r="13">
@@ -1427,7 +1427,7 @@
         <v>1962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>3235</v>
@@ -1436,7 +1436,7 @@
         <v>0.6065013656296054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1442240696151806</v>
+        <v>0.1420982697860771</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1448,19 +1448,19 @@
         <v>3309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1205</v>
+        <v>1469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5235</v>
+        <v>5389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4511063249992127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1642662216759804</v>
+        <v>0.2002281154945656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7137383443391946</v>
+        <v>0.7346316231662733</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1469,19 +1469,19 @@
         <v>5271</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2945</v>
+        <v>2782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7680</v>
+        <v>7815</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4986629310447103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2785872006120776</v>
+        <v>0.2631981261655256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7265481510456036</v>
+        <v>0.7393106684906386</v>
       </c>
     </row>
     <row r="15">
@@ -1573,19 +1573,19 @@
         <v>13711</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -1594,19 +1594,19 @@
         <v>23434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18107</v>
+        <v>17803</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30127</v>
+        <v>29959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2652789554271027</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2049770035858551</v>
+        <v>0.2015353533132481</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3410494077343445</v>
+        <v>0.3391502432639761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -1615,19 +1615,19 @@
         <v>37144</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29850</v>
+        <v>29674</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45081</v>
+        <v>45144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.293771503593023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2360785614243105</v>
+        <v>0.2346896349765163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3565434519061028</v>
+        <v>0.3570364743049624</v>
       </c>
     </row>
     <row r="17">
@@ -1644,19 +1644,19 @@
         <v>2110</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5231</v>
+        <v>5252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05537376340589534</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01729937671840832</v>
+        <v>0.01755410201406675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1372761964041826</v>
+        <v>0.1378445680122045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1665,19 +1665,19 @@
         <v>9630</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6078</v>
+        <v>6179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14544</v>
+        <v>14314</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1090188646291331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06880139546070392</v>
+        <v>0.06994618544606318</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1646476002503619</v>
+        <v>0.1620384530383044</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1686,19 +1686,19 @@
         <v>11740</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7493</v>
+        <v>7744</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17673</v>
+        <v>17644</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09285236800235155</v>
+        <v>0.0928523680023516</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05925828358325235</v>
+        <v>0.06124746631570214</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1397741100341177</v>
+        <v>0.1395424379861974</v>
       </c>
     </row>
     <row r="18">
@@ -1715,19 +1715,19 @@
         <v>22283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16445</v>
+        <v>16839</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26995</v>
+        <v>27215</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5848007838178685</v>
+        <v>0.5848007838178686</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.431573386854169</v>
+        <v>0.4419309500669605</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7084643805379055</v>
+        <v>0.7142238778586347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>104</v>
@@ -1736,19 +1736,19 @@
         <v>55272</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48859</v>
+        <v>49021</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61603</v>
+        <v>61591</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6257021799437642</v>
+        <v>0.6257021799437641</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5531011529864761</v>
+        <v>0.5549400275007934</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6973763373265633</v>
+        <v>0.6972301607110287</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>140</v>
@@ -1757,19 +1757,19 @@
         <v>77555</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>69482</v>
+        <v>70218</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86333</v>
+        <v>87249</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.6133761284046254</v>
+        <v>0.6133761284046255</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.549524390659858</v>
+        <v>0.5553436557681685</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6827996848631297</v>
+        <v>0.6900411803010802</v>
       </c>
     </row>
     <row r="19">
